--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H2">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02657366666666667</v>
+        <v>1.139664666666667</v>
       </c>
       <c r="N2">
-        <v>0.079721</v>
+        <v>3.418994</v>
       </c>
       <c r="O2">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223173</v>
       </c>
       <c r="P2">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223171</v>
       </c>
       <c r="Q2">
-        <v>0.02325298584844445</v>
+        <v>1.746126962051333</v>
       </c>
       <c r="R2">
-        <v>0.209276872636</v>
+        <v>15.715142658462</v>
       </c>
       <c r="S2">
-        <v>0.001079221941515653</v>
+        <v>0.07496847954359318</v>
       </c>
       <c r="T2">
-        <v>0.001079221941515653</v>
+        <v>0.07496847954359313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H3">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I3">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J3">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.139664666666667</v>
+        <v>0.1742303333333333</v>
       </c>
       <c r="N3">
-        <v>3.418994</v>
+        <v>0.522691</v>
       </c>
       <c r="O3">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="P3">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="Q3">
-        <v>0.9972506503671111</v>
+        <v>0.2669454371436667</v>
       </c>
       <c r="R3">
-        <v>8.975255853304001</v>
+        <v>2.402508934293</v>
       </c>
       <c r="S3">
-        <v>0.04628458427152655</v>
+        <v>0.01146107584310481</v>
       </c>
       <c r="T3">
-        <v>0.04628458427152655</v>
+        <v>0.0114610758431048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.532141</v>
+      </c>
+      <c r="H4">
+        <v>4.596423</v>
+      </c>
+      <c r="I4">
+        <v>0.08900664250669833</v>
+      </c>
+      <c r="J4">
+        <v>0.08900664250669831</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.8750386666666667</v>
-      </c>
-      <c r="H4">
-        <v>2.625116</v>
-      </c>
-      <c r="I4">
-        <v>0.05304058862308838</v>
-      </c>
-      <c r="J4">
-        <v>0.05304058862308837</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.1397793333333333</v>
+        <v>0.03917666666666667</v>
       </c>
       <c r="N4">
-        <v>0.419338</v>
+        <v>0.11753</v>
       </c>
       <c r="O4">
-        <v>0.1070271382240108</v>
+        <v>0.0289538740864921</v>
       </c>
       <c r="P4">
-        <v>0.1070271382240108</v>
+        <v>0.02895387408649209</v>
       </c>
       <c r="Q4">
-        <v>0.1223123214675556</v>
+        <v>0.06002417724333333</v>
       </c>
       <c r="R4">
-        <v>1.100810893208</v>
+        <v>0.5402175951899999</v>
       </c>
       <c r="S4">
-        <v>0.005676782410046172</v>
+        <v>0.002577087120000359</v>
       </c>
       <c r="T4">
-        <v>0.005676782410046172</v>
+        <v>0.002577087120000358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>31.85826</v>
       </c>
       <c r="I5">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J5">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02657366666666667</v>
+        <v>1.139664666666667</v>
       </c>
       <c r="N5">
-        <v>0.079721</v>
+        <v>3.418994</v>
       </c>
       <c r="O5">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223173</v>
       </c>
       <c r="P5">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223171</v>
       </c>
       <c r="Q5">
-        <v>0.2821969272733333</v>
+        <v>12.10257775449333</v>
       </c>
       <c r="R5">
-        <v>2.53977234546</v>
+        <v>108.92319979044</v>
       </c>
       <c r="S5">
-        <v>0.01309737672945137</v>
+        <v>0.519613906967325</v>
       </c>
       <c r="T5">
-        <v>0.01309737672945137</v>
+        <v>0.5196139069673248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J6">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.139664666666667</v>
+        <v>0.1742303333333333</v>
       </c>
       <c r="N6">
-        <v>3.418994</v>
+        <v>0.522691</v>
       </c>
       <c r="O6">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="P6">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="Q6">
-        <v>12.10257775449333</v>
+        <v>1.850225086406667</v>
       </c>
       <c r="R6">
-        <v>108.92319979044</v>
+        <v>16.65202577766</v>
       </c>
       <c r="S6">
-        <v>0.5617071092150607</v>
+        <v>0.07943784418652333</v>
       </c>
       <c r="T6">
-        <v>0.5617071092150606</v>
+        <v>0.07943784418652329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J7">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1397793333333333</v>
+        <v>0.03917666666666667</v>
       </c>
       <c r="N7">
-        <v>0.419338</v>
+        <v>0.11753</v>
       </c>
       <c r="O7">
-        <v>0.1070271382240108</v>
+        <v>0.0289538740864921</v>
       </c>
       <c r="P7">
-        <v>0.1070271382240108</v>
+        <v>0.02895387408649209</v>
       </c>
       <c r="Q7">
-        <v>1.484375447986667</v>
+        <v>0.4160334775333333</v>
       </c>
       <c r="R7">
-        <v>13.35937903188</v>
+        <v>3.7443012978</v>
       </c>
       <c r="S7">
-        <v>0.06889311176446206</v>
+        <v>0.01786204435745418</v>
       </c>
       <c r="T7">
-        <v>0.06889311176446204</v>
+        <v>0.01786204435745418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H8">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I8">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J8">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02657366666666667</v>
+        <v>1.139664666666667</v>
       </c>
       <c r="N8">
-        <v>0.079721</v>
+        <v>3.418994</v>
       </c>
       <c r="O8">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223173</v>
       </c>
       <c r="P8">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223171</v>
       </c>
       <c r="Q8">
-        <v>0.1222432070322222</v>
+        <v>5.586936687583777</v>
       </c>
       <c r="R8">
-        <v>1.10018886329</v>
+        <v>50.28243018825399</v>
       </c>
       <c r="S8">
-        <v>0.005673574657907443</v>
+        <v>0.2398703862188925</v>
       </c>
       <c r="T8">
-        <v>0.005673574657907442</v>
+        <v>0.2398703862188923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H9">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I9">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J9">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.139664666666667</v>
+        <v>0.1742303333333333</v>
       </c>
       <c r="N9">
-        <v>3.418994</v>
+        <v>0.522691</v>
       </c>
       <c r="O9">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="P9">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="Q9">
-        <v>5.242643611895556</v>
+        <v>0.8541230327312223</v>
       </c>
       <c r="R9">
-        <v>47.18379250706</v>
+        <v>7.687107294581</v>
       </c>
       <c r="S9">
-        <v>0.2433225588482031</v>
+        <v>0.03667104769506443</v>
       </c>
       <c r="T9">
-        <v>0.243322558848203</v>
+        <v>0.03667104769506442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H10">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I10">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J10">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1397793333333333</v>
+        <v>0.03917666666666667</v>
       </c>
       <c r="N10">
-        <v>0.419338</v>
+        <v>0.11753</v>
       </c>
       <c r="O10">
-        <v>0.1070271382240108</v>
+        <v>0.0289538740864921</v>
       </c>
       <c r="P10">
-        <v>0.1070271382240108</v>
+        <v>0.02895387408649209</v>
       </c>
       <c r="Q10">
-        <v>0.6430077639577778</v>
+        <v>0.1920543495811111</v>
       </c>
       <c r="R10">
-        <v>5.787069875619999</v>
+        <v>1.72848914623</v>
       </c>
       <c r="S10">
-        <v>0.02984339697065505</v>
+        <v>0.008245690542980312</v>
       </c>
       <c r="T10">
-        <v>0.02984339697065504</v>
+        <v>0.00824569054298031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,55 +1086,55 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H11">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I11">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J11">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02657366666666667</v>
+        <v>1.139664666666667</v>
       </c>
       <c r="N11">
-        <v>0.079721</v>
+        <v>3.418994</v>
       </c>
       <c r="O11">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223173</v>
       </c>
       <c r="P11">
-        <v>0.02034709586623765</v>
+        <v>0.8422796033223171</v>
       </c>
       <c r="Q11">
-        <v>0.01070672517355555</v>
+        <v>0.1822984807506666</v>
       </c>
       <c r="R11">
-        <v>0.09636052656199999</v>
+        <v>1.640686326756</v>
       </c>
       <c r="S11">
-        <v>0.0004969225373631805</v>
+        <v>0.007826830592506875</v>
       </c>
       <c r="T11">
-        <v>0.0004969225373631804</v>
+        <v>0.007826830592506872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H12">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I12">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J12">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.139664666666667</v>
+        <v>0.1742303333333333</v>
       </c>
       <c r="N12">
-        <v>3.418994</v>
+        <v>0.522691</v>
       </c>
       <c r="O12">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="P12">
-        <v>0.8726257659097516</v>
+        <v>0.1287665225911907</v>
       </c>
       <c r="Q12">
-        <v>0.4591792517408888</v>
+        <v>0.02786953565933334</v>
       </c>
       <c r="R12">
-        <v>4.132613265667999</v>
+        <v>0.250825820934</v>
       </c>
       <c r="S12">
-        <v>0.0213115135749613</v>
+        <v>0.001196554866498161</v>
       </c>
       <c r="T12">
-        <v>0.02131151357496129</v>
+        <v>0.00119655486649816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1210,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H13">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I13">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J13">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1397793333333333</v>
+        <v>0.03917666666666667</v>
       </c>
       <c r="N13">
-        <v>0.419338</v>
+        <v>0.11753</v>
       </c>
       <c r="O13">
-        <v>0.1070271382240108</v>
+        <v>0.0289538740864921</v>
       </c>
       <c r="P13">
-        <v>0.1070271382240108</v>
+        <v>0.02895387408649209</v>
       </c>
       <c r="Q13">
-        <v>0.05631811844844444</v>
+        <v>0.006266621246666666</v>
       </c>
       <c r="R13">
-        <v>0.506863066036</v>
+        <v>0.05639959122</v>
       </c>
       <c r="S13">
-        <v>0.002613847078847498</v>
+        <v>0.0002690520660572475</v>
       </c>
       <c r="T13">
-        <v>0.002613847078847497</v>
+        <v>0.0002690520660572475</v>
       </c>
     </row>
   </sheetData>
